--- a/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>17_01_23101010</t>
+  </si>
+  <si>
+    <t>17_01_23101959</t>
+  </si>
+  <si>
+    <t>17_01_23102025</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,6 +285,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>17_01_23102025</t>
+  </si>
+  <si>
+    <t>19_01_23200610</t>
+  </si>
+  <si>
+    <t>19_01_23200626</t>
+  </si>
+  <si>
+    <t>19_01_23202305</t>
+  </si>
+  <si>
+    <t>19_01_23202324</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -313,6 +325,62 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -93,6 +93,126 @@
   </si>
   <si>
     <t>19_01_23202324</t>
+  </si>
+  <si>
+    <t>19_01_23204743</t>
+  </si>
+  <si>
+    <t>19_01_23204755</t>
+  </si>
+  <si>
+    <t>19_01_23204801</t>
+  </si>
+  <si>
+    <t>19_01_23204814</t>
+  </si>
+  <si>
+    <t>19_01_23211827</t>
+  </si>
+  <si>
+    <t>19_01_23211845</t>
+  </si>
+  <si>
+    <t>19_01_23212355</t>
+  </si>
+  <si>
+    <t>19_01_23212414</t>
+  </si>
+  <si>
+    <t>19_01_23212629</t>
+  </si>
+  <si>
+    <t>19_01_23212647</t>
+  </si>
+  <si>
+    <t>Create Citizenship</t>
+  </si>
+  <si>
+    <t>19_01_23212707</t>
+  </si>
+  <si>
+    <t>19_01_23212728</t>
+  </si>
+  <si>
+    <t>19_01_23212748</t>
+  </si>
+  <si>
+    <t>19_01_23212816</t>
+  </si>
+  <si>
+    <t>19_01_23212836</t>
+  </si>
+  <si>
+    <t>19_01_23213036</t>
+  </si>
+  <si>
+    <t>19_01_23213054</t>
+  </si>
+  <si>
+    <t>19_01_23213330</t>
+  </si>
+  <si>
+    <t>19_01_23213348</t>
+  </si>
+  <si>
+    <t>19_01_23213500</t>
+  </si>
+  <si>
+    <t>19_01_23213519</t>
+  </si>
+  <si>
+    <t>19_01_23213548</t>
+  </si>
+  <si>
+    <t>19_01_23213606</t>
+  </si>
+  <si>
+    <t>19_01_23213715</t>
+  </si>
+  <si>
+    <t>19_01_23213733</t>
+  </si>
+  <si>
+    <t>19_01_23213757</t>
+  </si>
+  <si>
+    <t>19_01_23213818</t>
+  </si>
+  <si>
+    <t>19_01_23213839</t>
+  </si>
+  <si>
+    <t>19_01_23213922</t>
+  </si>
+  <si>
+    <t>19_01_23213941</t>
+  </si>
+  <si>
+    <t>19_01_23214048</t>
+  </si>
+  <si>
+    <t>19_01_23214106</t>
+  </si>
+  <si>
+    <t>19_01_23214150</t>
+  </si>
+  <si>
+    <t>19_01_23214208</t>
+  </si>
+  <si>
+    <t>19_01_23214230</t>
+  </si>
+  <si>
+    <t>19_01_23214251</t>
+  </si>
+  <si>
+    <t>19_01_23214312</t>
+  </si>
+  <si>
+    <t>19_01_23214932</t>
+  </si>
+  <si>
+    <t>19_01_23214950</t>
   </si>
 </sst>
 </file>
@@ -137,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -381,6 +501,552 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
